--- a/drafts/files/[02월]첨부자료_점심바우처(밀카드) 사용내역.xlsx
+++ b/drafts/files/[02월]첨부자료_점심바우처(밀카드) 사용내역.xlsx
@@ -539,7 +539,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026년 2월 24일</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
